--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -454,12 +454,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,12 +481,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -643,12 +643,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,12 +481,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -508,12 +508,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -535,12 +535,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -550,24 +550,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -577,24 +577,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -604,56 +604,56 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -670,71 +670,71 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -744,38 +744,2414 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>caacn</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Portland</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>orcmp</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Daneri Mortuary</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cadan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Lane Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ormlm</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cablo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Canby Funeral Chapel</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>orccf</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Lane Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ormlm</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>The Omega Society</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>caoms</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>caacn</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Portland</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>orcmp</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Lane Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ormlm</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
     </row>
-    <row r="15"/>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cablo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>caacn</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>caaed</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Portland</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>orcmp</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The Omega Society</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>caoms</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Alpha Cremation Services</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ormac</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>caacn</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cablo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>caaed</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Portland</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>orcmp</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Alpha Cremation Services</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ormac</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>caacn</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Murphy-Musgrove Funeral Home</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ormmm</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>caaed</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>The Omega Society</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>caoms</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cadll</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Alpha Cremation Services</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ormac</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Murphy-Musgrove Funeral Home</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ormmm</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cadll</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>caaed</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Murphy-Musgrove Funeral Home</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ormmm</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>The Omega Society</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>caoms</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Alpha Cremation Services</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ormac</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>caacr</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cadll</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Alpha Cremation Services</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ormac</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>The Omega Society</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>caoms</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cadll</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>caacr</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cadll</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>caacr</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cadll</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="103"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -469,24 +469,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -508,12 +508,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -523,24 +523,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -577,24 +577,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -643,12 +643,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -658,24 +658,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -685,24 +685,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -712,24 +712,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -751,12 +751,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -778,12 +778,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -820,51 +820,51 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -874,24 +874,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -901,51 +901,51 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -955,78 +955,78 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1041,19 +1041,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1063,56 +1063,56 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1144,56 +1144,56 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1203,19 +1203,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1225,29 +1225,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1257,46 +1257,46 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1306,24 +1306,24 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1333,29 +1333,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1365,29 +1365,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1399,17 +1399,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1436,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1463,56 +1463,56 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1522,61 +1522,61 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1588,39 +1588,39 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1630,105 +1630,105 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1738,78 +1738,78 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1819,24 +1819,24 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1846,29 +1846,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1900,24 +1900,24 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1939,39 +1939,39 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2035,24 +2035,24 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2089,24 +2089,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2116,51 +2116,51 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2170,29 +2170,29 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2202,19 +2202,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2224,29 +2224,29 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2256,46 +2256,46 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2317,66 +2317,66 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2386,24 +2386,24 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2425,93 +2425,93 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2533,12 +2533,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2548,24 +2548,24 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2587,12 +2587,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2629,29 +2629,29 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2661,19 +2661,19 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2683,24 +2683,24 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2710,24 +2710,24 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2749,12 +2749,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2764,24 +2764,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2791,78 +2791,78 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2884,17 +2884,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2904,46 +2904,46 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2953,24 +2953,24 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2992,12 +2992,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3007,51 +3007,51 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3073,12 +3073,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3088,24 +3088,24 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3127,31 +3127,463 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>caaed</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Daneri Mortuary</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>cadan</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Canby Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>orccf</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>caaed</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Daneri Mortuary</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>cadan</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>caaed</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Canby Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>orccf</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Daneri Mortuary</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>cadan</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>caaed</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
     </row>
-    <row r="103"/>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Canby Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>orccf</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Daneri Mortuary</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>cadan</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Canby Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>orccf</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Daneri Mortuary</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>cadan</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Canby Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>orccf</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Daneri Mortuary</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>cadan</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Canby Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>orccf</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="119"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -469,24 +469,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -496,24 +496,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -535,12 +535,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -631,24 +631,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -670,12 +670,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -685,24 +685,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -724,12 +724,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -751,12 +751,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -778,12 +778,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -825,19 +825,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -847,24 +847,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -874,24 +874,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -901,29 +901,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -940,39 +940,39 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -987,105 +987,105 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1095,19 +1095,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1117,78 +1117,78 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1198,24 +1198,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1225,29 +1225,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1257,19 +1257,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1279,24 +1279,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1306,56 +1306,56 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1365,19 +1365,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1387,24 +1387,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1426,17 +1426,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1453,39 +1453,39 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1517,56 +1517,56 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1635,46 +1635,46 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1684,29 +1684,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1716,19 +1716,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1738,29 +1738,29 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1770,19 +1770,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1804,54 +1804,54 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1873,24 +1873,24 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1912,12 +1912,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1927,51 +1927,51 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1981,24 +1981,24 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2008,24 +2008,24 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2040,19 +2040,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2062,51 +2062,51 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2128,44 +2128,44 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2175,19 +2175,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2197,78 +2197,78 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2278,24 +2278,24 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2305,24 +2305,24 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2332,51 +2332,51 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2386,24 +2386,24 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2440,24 +2440,24 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2467,24 +2467,24 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2506,17 +2506,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2533,12 +2533,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2548,24 +2548,24 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2597,29 +2597,29 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2641,12 +2641,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2668,39 +2668,39 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2710,24 +2710,24 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2737,24 +2737,24 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2764,24 +2764,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2791,51 +2791,51 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2845,56 +2845,56 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2938,66 +2938,66 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3007,24 +3007,24 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3034,24 +3034,24 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3061,24 +3061,24 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3115,24 +3115,24 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3142,56 +3142,56 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3208,39 +3208,39 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3250,51 +3250,51 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3304,29 +3304,29 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3336,19 +3336,19 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3358,24 +3358,24 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3385,29 +3385,29 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3417,19 +3417,19 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3439,24 +3439,24 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3466,51 +3466,51 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3520,24 +3520,24 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3559,12 +3559,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3583,7 +3583,88 @@
         </is>
       </c>
     </row>
-    <row r="119"/>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="122"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,12 +481,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -496,24 +496,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -535,12 +535,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -550,24 +550,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -643,12 +643,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -670,12 +670,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -685,24 +685,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -805,12 +805,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -832,12 +832,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -847,24 +847,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -886,12 +886,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -901,24 +901,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -928,78 +928,78 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1021,12 +1021,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1036,24 +1036,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1117,39 +1117,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1166,56 +1166,56 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1230,181 +1230,181 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1426,12 +1426,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1441,24 +1441,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1507,12 +1507,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1561,12 +1561,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1588,12 +1588,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1603,29 +1603,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1635,19 +1635,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1669,12 +1669,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1684,24 +1684,24 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1711,24 +1711,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1743,19 +1743,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1765,24 +1765,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1797,19 +1797,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1831,12 +1831,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1858,17 +1858,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1900,24 +1900,24 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1939,147 +1939,147 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2089,51 +2089,51 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2165,12 +2165,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2182,12 +2182,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2197,24 +2197,24 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2236,44 +2236,44 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2283,19 +2283,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2317,12 +2317,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2332,24 +2332,24 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2359,24 +2359,24 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2398,39 +2398,39 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2452,44 +2452,44 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2506,27 +2506,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2548,39 +2548,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2614,12 +2614,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2641,12 +2641,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2656,56 +2656,56 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2715,73 +2715,73 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2803,12 +2803,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2830,12 +2830,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2845,56 +2845,56 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2904,19 +2904,19 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2926,24 +2926,24 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2965,12 +2965,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2992,12 +2992,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3019,12 +3019,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3046,12 +3046,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3061,29 +3061,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3115,29 +3115,29 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3154,12 +3154,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3169,24 +3169,24 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3223,29 +3223,29 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3255,19 +3255,19 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3277,24 +3277,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3304,56 +3304,56 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3363,19 +3363,19 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3385,24 +3385,24 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3424,12 +3424,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3451,12 +3451,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3488,29 +3488,29 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3529,142 +3529,7 @@
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Musgrove Family Mortuary</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ormwl</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Affordable Mortuary</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>cabam</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>caacs</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>caacs</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>caacs</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="122"/>
+    <row r="117"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,12 +481,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -496,24 +496,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -523,24 +523,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -550,24 +550,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -643,12 +643,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -697,12 +697,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -712,24 +712,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -739,24 +739,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -766,24 +766,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -805,12 +805,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -847,24 +847,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -901,24 +901,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -928,12 +928,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -982,51 +982,51 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1036,24 +1036,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1075,12 +1075,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1090,78 +1090,78 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1171,51 +1171,51 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1237,39 +1237,39 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1291,39 +1291,39 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1345,12 +1345,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1360,29 +1360,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1399,12 +1399,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1414,24 +1414,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1453,12 +1453,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1468,12 +1468,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1507,12 +1507,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1522,24 +1522,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1561,12 +1561,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1588,12 +1588,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1615,17 +1615,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1635,19 +1635,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1657,24 +1657,24 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1684,24 +1684,24 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1716,19 +1716,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1738,24 +1738,24 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1777,12 +1777,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1792,24 +1792,24 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1819,29 +1819,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1851,46 +1851,46 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1912,12 +1912,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1939,12 +1939,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1959,19 +1959,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2020,39 +2020,39 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2062,78 +2062,78 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2143,24 +2143,24 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2170,24 +2170,24 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2197,24 +2197,24 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2236,22 +2236,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2263,17 +2263,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2332,24 +2332,24 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2359,24 +2359,24 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2398,39 +2398,39 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2479,66 +2479,66 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2548,24 +2548,24 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2575,24 +2575,24 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2602,24 +2602,24 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2656,24 +2656,24 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2683,39 +2683,39 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2749,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2764,51 +2764,51 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2818,51 +2818,51 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2872,29 +2872,29 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2904,19 +2904,19 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2926,24 +2926,24 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2953,51 +2953,51 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3029,29 +3029,29 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3061,29 +3061,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3115,51 +3115,51 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3169,24 +3169,24 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3196,29 +3196,29 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3235,17 +3235,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3255,19 +3255,19 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3289,12 +3289,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3304,29 +3304,29 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3336,19 +3336,19 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3370,12 +3370,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3385,39 +3385,39 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3451,12 +3451,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3466,24 +3466,24 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3505,31 +3505,166 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
           <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>caacs</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
     </row>
-    <row r="117"/>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>caacs</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="122"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -496,24 +496,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -562,12 +562,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -582,19 +582,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -604,24 +604,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -631,24 +631,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -658,24 +658,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -697,12 +697,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -724,12 +724,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -739,24 +739,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -793,24 +793,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -820,24 +820,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -847,24 +847,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -874,24 +874,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -901,51 +901,51 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -960,46 +960,46 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1014,51 +1014,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1068,100 +1068,100 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1183,27 +1183,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1225,56 +1225,56 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1284,19 +1284,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1306,29 +1306,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1338,19 +1338,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1360,24 +1360,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1387,105 +1387,105 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1500,56 +1500,56 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1561,39 +1561,39 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>All-States Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>coasc</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1615,17 +1615,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1635,19 +1635,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1669,12 +1669,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1684,51 +1684,51 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>All-States Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>coasc</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1750,22 +1750,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1777,12 +1777,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1792,29 +1792,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1824,24 +1824,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1851,46 +1851,46 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>All-States Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>coasc</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1912,12 +1912,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1927,24 +1927,24 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1954,24 +1954,24 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1986,46 +1986,46 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2035,24 +2035,24 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2062,24 +2062,24 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2089,78 +2089,78 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>All-States Cremation - Centennial</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>coasl</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2170,24 +2170,24 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2219,34 +2219,34 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2256,73 +2256,73 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>All-States Cremation - Centennial</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>coasl</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2332,78 +2332,78 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>All-States Cremation - Centennial</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>coasl</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2413,24 +2413,24 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2452,39 +2452,39 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2506,12 +2506,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2521,29 +2521,29 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2553,19 +2553,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2587,12 +2587,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2602,24 +2602,24 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2629,83 +2629,83 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>All-States Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>coasr</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2715,24 +2715,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2742,19 +2742,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2764,24 +2764,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2791,51 +2791,51 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>All-States Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>coasr</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2857,12 +2857,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2877,46 +2877,46 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>All-States Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>coasr</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2931,51 +2931,51 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2992,12 +2992,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3007,24 +3007,24 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3034,24 +3034,24 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3061,51 +3061,51 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3127,17 +3127,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3147,19 +3147,19 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3169,24 +3169,24 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>All-States Cremation - Westminster</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>coasw</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3196,24 +3196,24 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3235,39 +3235,39 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3277,51 +3277,51 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>All-States Cremation - Westminster</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>coasw</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3331,24 +3331,24 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3358,29 +3358,29 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3397,12 +3397,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3412,24 +3412,24 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>All-States Cremation - Westminster</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>coasw</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3444,73 +3444,73 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3520,24 +3520,24 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3547,78 +3547,78 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3628,24 +3628,24 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3664,7 +3664,2491 @@
         </is>
       </c>
     </row>
-    <row r="122"/>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>coavc</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>coroa</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Murphy-Musgrove Funeral Home</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ormmm</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>coavc</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>coroa</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Murphy-Musgrove Funeral Home</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ormmm</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>coavc</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>coroa</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Molalla Funeral Chapel</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>orcmf</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>coavc</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>coroa</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>coavc</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Portland</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>orcmp</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>A Basic Cremation by All-States Cremation Services</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>coabd</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Denver</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>corod</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>coavc</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Portland</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>orcmp</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>A Basic Cremation by All-States Cremation Services</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>coabd</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Denver</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>corod</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Portland</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>orcmp</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>coavl</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Denver</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>corod</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Portland</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>orcmp</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Aspen Mortuaries - Arvada</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>coama</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Denver</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>corod</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>coavl</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>cablo</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Portland</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>orcmp</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Springfield Memorial Funeral Home</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ormsm</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Aspen Mortuaries - Arvada</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>coama</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Denver</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>corod</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>coavl</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>cablo</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Aspen Mortuaries - Arvada</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>coama</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Denver</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>corod</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>coavl</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>cablo</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Aspen Mortuaries - Arvada</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>coama</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>coavl</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>cablo</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Aspen Mortuaries - Arvada</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>coama</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>corol</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>cablo</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>coavl</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Aspen Mortuaries - Arvada</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>coama</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>corol</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>cablo</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>corol</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Crown Cremation Services - Salem</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>orcms</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>corol</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>coamc</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Musgrove Family Mortuary</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ormwl</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>corol</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>coamc</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>corol</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>coamc</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>coamc</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>coamc</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Brusie Funeral Home</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>cabru</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>coamc</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="214"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E214"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,18 +448,16 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,12 +479,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -501,19 +499,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -535,12 +533,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -555,19 +553,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -577,24 +575,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -604,24 +602,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -643,12 +641,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -658,7 +656,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -670,12 +668,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -697,12 +695,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -724,12 +722,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -739,7 +737,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -778,12 +776,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -798,19 +796,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -825,34 +823,34 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -913,39 +911,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -967,12 +965,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -994,12 +992,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1075,12 +1073,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1129,12 +1127,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1149,7 +1147,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1181,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1198,24 +1196,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1225,24 +1223,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1291,12 +1289,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1318,12 +1316,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1345,12 +1343,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1372,12 +1370,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1480,12 +1478,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>All-States Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>coasc</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1500,34 +1498,34 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1559,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1576,7 +1574,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1588,27 +1586,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>All-States Cremation - Colorado Springs</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>coasc</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1642,17 +1640,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1662,19 +1660,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1684,29 +1682,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>All-States Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>coasc</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1716,19 +1714,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>All-States Cremation - Colorado Springs</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>coasc</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1738,24 +1736,24 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - North</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cotsn</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1770,24 +1768,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1797,19 +1795,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1824,19 +1822,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1846,29 +1844,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>All-States Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>coasc</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1878,19 +1876,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>All-States Cremation - Colorado Springs</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>coasc</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1900,24 +1898,24 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - North</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cotsn</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1939,12 +1937,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1966,12 +1964,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1981,7 +1979,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1993,12 +1991,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2008,7 +2006,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2020,12 +2018,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - North</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>cotsn</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2047,39 +2045,39 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2094,7 +2092,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2128,54 +2126,54 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2207,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2229,51 +2227,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>All-States Cremation - Centennial</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>coasl</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>All-States Cremation - Centennial</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>coasl</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2283,51 +2281,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>All-States Cremation - Centennial</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>coasl</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2337,19 +2335,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2359,56 +2357,56 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>All-States Cremation - Centennial</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>coasl</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2452,12 +2450,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2506,17 +2504,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2533,17 +2531,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2553,7 +2551,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2587,12 +2585,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2614,12 +2612,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>All-States Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>coasr</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2641,12 +2639,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>All-States Cremation - Wheat Ridge</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>coasr</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2656,56 +2654,56 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2715,7 +2713,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2747,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2776,12 +2774,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>All-States Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>coasr</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2796,19 +2794,19 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>All-States Cremation - Wheat Ridge</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>coasr</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2818,51 +2816,51 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2877,19 +2875,19 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2904,7 +2902,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2938,12 +2936,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2953,51 +2951,51 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3007,12 +3005,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3046,44 +3044,44 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3093,19 +3091,19 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3115,24 +3113,24 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3147,19 +3145,19 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>All-States Cremation - Westminster</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>coasw</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3169,39 +3167,39 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>All-States Cremation - Westminster</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>coasw</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3233,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3255,19 +3253,19 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>All-States Cremation - Westminster</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>coasw</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3277,24 +3275,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3304,29 +3302,29 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>All-States Cremation - Westminster</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>coasw</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3336,24 +3334,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3370,12 +3368,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3397,39 +3395,39 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>All-States Cremation - Westminster</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>coasw</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>All-States Cremation - Westminster</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>coasw</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3439,24 +3437,24 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3466,24 +3464,24 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3493,39 +3491,39 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3574,29 +3572,29 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3606,7 +3604,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3640,39 +3638,39 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3694,12 +3692,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3709,29 +3707,29 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3741,24 +3739,24 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3768,7 +3766,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3802,27 +3800,27 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3883,12 +3881,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3898,51 +3896,51 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3952,24 +3950,24 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3991,17 +3989,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4011,100 +4009,100 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4114,24 +4112,24 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4141,24 +4139,24 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4168,51 +4166,51 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4222,51 +4220,51 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>A Basic Cremation by All-States Cremation Services</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>coabd</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4281,19 +4279,19 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4315,12 +4313,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4330,7 +4328,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4342,12 +4340,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4357,12 +4355,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4382,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4396,12 +4394,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Denver</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>corod</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4423,39 +4421,39 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>Romero Funeral Home and Cremations - Denver</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>corod</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4470,51 +4468,51 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4524,61 +4522,61 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A Basic Cremation by All-States Cremation Services</t>
+          <t>Romero Funeral Home and Cremations - Denver</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>coabd</t>
+          <t>corod</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Denver</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>corod</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4600,29 +4598,29 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4639,39 +4637,39 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4681,12 +4679,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4720,12 +4718,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4747,12 +4745,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4762,12 +4760,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4789,83 +4787,83 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Denver</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>corod</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Romero Funeral Home and Cremations - Denver</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>corod</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4882,12 +4880,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4902,24 +4900,24 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4929,24 +4927,24 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4956,73 +4954,73 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Denver</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>corod</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Romero Funeral Home and Cremations - Denver</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>corod</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5054,29 +5052,29 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Denver</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>corod</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5091,7 +5089,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5125,39 +5123,39 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Romero Funeral Home and Cremations - Denver</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>corod</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5167,24 +5165,24 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5194,24 +5192,24 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5221,24 +5219,24 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5260,12 +5258,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5275,7 +5273,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5287,12 +5285,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5314,98 +5312,98 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5422,39 +5420,39 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5464,24 +5462,24 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5491,66 +5489,66 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5572,29 +5570,29 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5604,24 +5602,24 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5665,12 +5663,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5680,29 +5678,29 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5712,19 +5710,19 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5746,17 +5744,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5773,39 +5771,39 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5815,56 +5813,56 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5874,46 +5872,46 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5928,24 +5926,24 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5955,34 +5953,34 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>No Facilities</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6004,83 +6002,59 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>All</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Brusie Funeral Home</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>cabru</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="A209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>No Facilities</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6090,24 +6064,24 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6117,19 +6091,19 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6139,16 +6113,69 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="214"/>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Affordable Mortuary</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>cabam</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,58 +434,80 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Location Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Location ID</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Disposition</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Service</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Package Count</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A Basic Cremation by All-States Cremation Services</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>coabd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cremation</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>A Basic Cremation by All-States Cremation Services</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>coabd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -494,24 +528,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -524,21 +556,19 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -548,56 +578,52 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -605,26 +631,24 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>caacn</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -632,21 +656,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -659,21 +681,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -683,24 +703,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -713,107 +731,99 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>caacs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -821,21 +831,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -848,48 +856,44 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="E17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>caacr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -902,21 +906,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -926,51 +928,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -980,24 +978,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1010,21 +1006,19 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>Affordable Mortuary</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>cabam</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1034,56 +1028,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1091,26 +1081,24 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1118,21 +1106,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1142,24 +1128,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1169,24 +1153,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Tualatin</t>
+          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>orcmt</t>
+          <t>coavl</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1196,105 +1178,97 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Daneri Mortuary</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cadan</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - Platte</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cotsf</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1307,21 +1281,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="E34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - North Sacramento</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>caacn</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1331,24 +1303,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Lakewood</t>
+          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>coaml</t>
+          <t>coavc</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1358,29 +1328,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>coavr</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1388,21 +1356,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="E37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1412,24 +1378,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1439,51 +1403,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - North</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cotsn</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>All-States Cremation - Colorado Springs</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>coasc</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1496,21 +1456,19 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>coavw</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1520,24 +1478,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1547,24 +1503,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1574,24 +1528,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1604,75 +1556,69 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - North</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cotsn</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>All Veterans Funeral &amp; Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>coavr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1685,21 +1631,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>All-States Cremation - Colorado Springs</t>
+          <t>All-States Cremation - Centennial</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>coasc</t>
+          <t>coasl</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1709,24 +1653,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>All-States Cremation - Centennial</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>coasl</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1739,53 +1681,49 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>All-States Cremation - Centennial</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>coasl</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - North</t>
+          <t>All-States Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cotsn</t>
+          <t>coasc</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1793,48 +1731,44 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E52" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>All-States Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>coasc</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Service - Roseville</t>
+          <t>All-States Cremation - Colorado Springs</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>caacr</t>
+          <t>coasc</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1844,24 +1778,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>All-States Cremation - Colorado Springs</t>
+          <t>All-States Cremation - Westminster</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>coasc</t>
+          <t>coasw</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1874,21 +1806,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="E55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>All-States Cremation - Westminster</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>coasw</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1898,24 +1828,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>All-States Cremation - Westminster</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>coasw</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1925,24 +1853,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - North</t>
+          <t>All-States Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cotsn</t>
+          <t>coasr</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1952,24 +1878,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>All-States Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>coasr</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1982,21 +1906,19 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E59" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Alpha Cremation Services</t>
+          <t>All-States Cremation - Wheat Ridge</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ormac</t>
+          <t>coasr</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2006,56 +1928,52 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Amador Hills Cremation &amp; Funeral Service</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>cadll</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - North</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cotsn</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2063,21 +1981,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2087,24 +2003,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>All-States Cremation - Centennial</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>coasl</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2117,37 +2031,33 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Alpha Cremation Services</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>ormac</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2163,7 +2073,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2171,75 +2081,69 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="E66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>The Springs Funeral Services - North</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cotsn</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Westminster</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>coavw</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>All-States Cremation - Centennial</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>coasl</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2249,83 +2153,77 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Amador Hills Cremation &amp; Funeral Service</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>cadll</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>All-States Cremation - Centennial</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>coasl</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2333,21 +2231,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="E72" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2357,24 +2253,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2387,53 +2281,49 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2441,48 +2331,44 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E76" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Aspen Mortuaries - Arvada</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>coama</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2495,26 +2381,24 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E78" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2522,21 +2406,19 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2549,75 +2431,69 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>All-States Cremation - Wheat Ridge</t>
+          <t>Aspen Mortuaries - Lakewood</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>coasr</t>
+          <t>coaml</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2627,56 +2503,52 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2684,21 +2556,19 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E85" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2708,29 +2578,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2738,48 +2606,44 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>All-States Cremation - Wheat Ridge</t>
+          <t>Blue Oaks Cremation &amp; Burial Services</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>coasr</t>
+          <t>cablo</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2792,26 +2656,24 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="E89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Affordable Cremation &amp; Funeral Center - South Sacramento</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>caacs</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2819,75 +2681,69 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="E90" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Canby Funeral Chapel</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>orccf</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2897,24 +2753,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>All-States Cremation - Wheat Ridge</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>coasr</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2924,24 +2778,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Brusie Funeral Home</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>cabru</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2951,29 +2803,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lane Memorial Funeral Home</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ormlm</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2981,10 +2831,8 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="E96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -3000,34 +2848,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3035,48 +2881,44 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Canby Funeral Chapel</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>orccf</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3086,13 +2928,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -3113,29 +2953,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>The Omega Society</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>caoms</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3143,80 +2981,74 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>All-States Cremation - Westminster</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>coasw</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3224,21 +3056,19 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ponderosa Valley Funeral Services</t>
+          <t>Crown Cremation Services - Portland</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>copvp</t>
+          <t>orcmp</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3248,51 +3078,47 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>All-States Cremation - Westminster</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>coasw</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3302,56 +3128,52 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3359,53 +3181,49 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E110" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Crown Cremation Services - Salem</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>orcms</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>All-States Cremation - Westminster</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>coasw</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3413,53 +3231,49 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="E112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3467,75 +3281,69 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E114" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>Crown Cremation Services - Tualatin</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>orcmt</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3545,24 +3353,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3572,29 +3378,27 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>caaed</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3602,21 +3406,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3626,78 +3428,72 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Daneri Mortuary</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>cadan</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3707,29 +3503,27 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3737,10 +3531,8 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E124" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -3756,29 +3548,27 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3788,51 +3578,47 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>El Dorado Funeral &amp; Cremation Services - Placerville</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>caaed</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3842,24 +3628,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3869,78 +3653,72 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Murphy-Musgrove Funeral Home</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ormmm</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3950,24 +3728,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3977,24 +3753,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Molalla Funeral Chapel</t>
+          <t>Lane Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>orcmf</t>
+          <t>ormlm</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4004,24 +3778,22 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4034,21 +3806,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E135" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4061,48 +3831,44 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E136" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ullrey Memorial Chapel</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>caulm</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4112,24 +3878,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4142,21 +3906,19 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E139" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Aurora</t>
+          <t>Molalla Funeral Chapel</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>coroa</t>
+          <t>orcmf</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4166,24 +3928,22 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4193,24 +3953,22 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4220,29 +3978,27 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4250,21 +4006,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A Basic Cremation by All-States Cremation Services</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>coabd</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4274,83 +4028,77 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Murphy-Musgrove Funeral Home</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormmm</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Colorado Springs</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>coavc</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4358,48 +4106,44 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="E147" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A Basic Cremation by All-States Cremation Services</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>coabd</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4409,78 +4153,72 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Denver</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>corod</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Musgrove Family Mortuary</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>ormwl</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4490,24 +4228,22 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4517,24 +4253,22 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Denver</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>corod</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4544,51 +4278,47 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4598,29 +4328,27 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4628,48 +4356,44 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E157" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>Ponderosa Valley Funeral Services</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>copvp</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4682,21 +4406,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E159" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Denver</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>corod</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4706,29 +4428,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4736,21 +4456,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Portland</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>orcmp</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4763,53 +4481,49 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E162" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Romero Funeral Home and Cremations - Aurora</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>coroa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4817,53 +4531,49 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Denver</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>corod</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4871,53 +4581,49 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E166" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Springfield Memorial Funeral Home</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ormsm</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4925,21 +4631,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E168" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4949,40 +4653,36 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Romero Funeral Home and Cremations - Commerce City</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>coamc</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -4998,29 +4698,27 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Romero Funeral Home and Cremations - Denver</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>corod</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5030,51 +4728,47 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>Romero Funeral Home and Cremations - Denver</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>corod</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Blue Oaks Cremation &amp; Burial Services</t>
+          <t>Romero Funeral Home and Cremations - Denver</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>cablo</t>
+          <t>corod</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5087,21 +4781,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="E174" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Romero Funeral Home and Cremations - Denver</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>corod</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5114,10 +4806,8 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E175" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="176">
@@ -5138,24 +4828,22 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5165,24 +4853,22 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5192,29 +4878,27 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5222,21 +4906,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="E179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5246,51 +4928,47 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Romero Funeral Home and Cremations - Lakewood</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>corol</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5300,29 +4978,27 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Aspen Mortuaries - Arvada</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>coama</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5330,21 +5006,19 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="E183" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5357,102 +5031,94 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E184" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>All Veterans Funeral &amp; Cremation - Centennial</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>coavl</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>Springfield Memorial Funeral Home</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>ormsm</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5465,21 +5131,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5489,24 +5153,22 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5516,51 +5178,47 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Crown Cremation Services - Salem</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>orcms</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5573,75 +5231,69 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="E192" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>The Omega Society</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>caoms</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5654,48 +5306,44 @@
           <t>All</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5708,21 +5356,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5732,24 +5378,22 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5762,21 +5406,19 @@
           <t>Facilities</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E199" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Musgrove Family Mortuary</t>
+          <t>The Springs Funeral Services - North</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ormwl</t>
+          <t>cotsn</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5786,51 +5428,47 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5840,29 +5478,27 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5870,21 +5506,19 @@
           <t>No Facilities</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="E203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5894,24 +5528,22 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Brusie Funeral Home</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>cabru</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5921,24 +5553,22 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Lakewood</t>
+          <t>The Springs Funeral Services - Platte</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>corol</t>
+          <t>cotsf</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5948,233 +5578,169 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Romero Funeral Home and Cremations - Commerce City</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>coamc</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Cremation</t>
+          <t>Burial</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr"/>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Ullrey Memorial Chapel</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>caulm</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Burial</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Affordable Mortuary</t>
+          <t>Ullrey Memorial Chapel</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>cabam</t>
+          <t>caulm</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Burial</t>
+          <t>Cremation</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>No Facilities</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Affordable Mortuary</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>cabam</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Affordable Mortuary</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>cabam</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>No Facilities</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Affordable Mortuary</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>cabam</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Cremation</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
